--- a/LPU.xlsx
+++ b/LPU.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prokofevne\Desktop\38\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user3\practice\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -735,7 +735,7 @@
   <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C2" sqref="C2:E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,15 +770,9 @@
       <c r="B2" s="12">
         <v>77067844</v>
       </c>
-      <c r="C2" s="1">
-        <v>4474</v>
-      </c>
-      <c r="D2" s="1">
-        <v>6179</v>
-      </c>
-      <c r="E2" s="1">
-        <v>6676</v>
-      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -787,15 +781,9 @@
       <c r="B3" s="1">
         <v>83685288</v>
       </c>
-      <c r="C3" s="8">
-        <v>8624</v>
-      </c>
-      <c r="D3" s="8">
-        <v>12087</v>
-      </c>
-      <c r="E3" s="8">
-        <v>13430</v>
-      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -804,15 +792,9 @@
       <c r="B4" s="1">
         <v>77065515</v>
       </c>
-      <c r="C4" s="6">
-        <v>427</v>
-      </c>
-      <c r="D4" s="7">
-        <v>954</v>
-      </c>
-      <c r="E4" s="6">
-        <v>1137</v>
-      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -821,15 +803,9 @@
       <c r="B5" s="1">
         <v>77064136</v>
       </c>
-      <c r="C5" s="6">
-        <v>537</v>
-      </c>
-      <c r="D5" s="6">
-        <v>537</v>
-      </c>
-      <c r="E5" s="6">
-        <v>537</v>
-      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -838,15 +814,9 @@
       <c r="B6" s="1">
         <v>77058793</v>
       </c>
-      <c r="C6" s="7">
-        <v>834</v>
-      </c>
-      <c r="D6" s="6">
-        <v>834</v>
-      </c>
-      <c r="E6" s="6">
-        <v>834</v>
-      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -855,15 +825,9 @@
       <c r="B7" s="1">
         <v>77064967</v>
       </c>
-      <c r="C7" s="8">
-        <v>1106</v>
-      </c>
-      <c r="D7" s="8">
-        <v>1106</v>
-      </c>
-      <c r="E7" s="8">
-        <v>8151</v>
-      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -872,15 +836,9 @@
       <c r="B8" s="1">
         <v>77065104</v>
       </c>
-      <c r="C8" s="6">
-        <v>114</v>
-      </c>
-      <c r="D8" s="6">
-        <v>144</v>
-      </c>
-      <c r="E8" s="6">
-        <v>144</v>
-      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -889,15 +847,9 @@
       <c r="B9" s="1">
         <v>77058108</v>
       </c>
-      <c r="C9" s="8">
-        <v>297</v>
-      </c>
-      <c r="D9" s="8">
-        <v>297</v>
-      </c>
-      <c r="E9" s="8">
-        <v>3387</v>
-      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -906,15 +858,9 @@
       <c r="B10" s="1">
         <v>77074420</v>
       </c>
-      <c r="C10" s="6">
-        <v>267</v>
-      </c>
-      <c r="D10" s="6">
-        <v>526</v>
-      </c>
-      <c r="E10" s="6">
-        <v>571</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -923,15 +869,9 @@
       <c r="B11" s="1">
         <v>77060437</v>
       </c>
-      <c r="C11" s="6">
-        <v>386</v>
-      </c>
-      <c r="D11" s="7">
-        <v>636</v>
-      </c>
-      <c r="E11" s="7">
-        <v>752</v>
-      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -940,15 +880,9 @@
       <c r="B12" s="1">
         <v>77064830</v>
       </c>
-      <c r="C12" s="6">
-        <v>1731</v>
-      </c>
-      <c r="D12" s="7">
-        <v>1952</v>
-      </c>
-      <c r="E12" s="6">
-        <v>1952</v>
-      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -957,15 +891,9 @@
       <c r="B13" s="1">
         <v>77063725</v>
       </c>
-      <c r="C13" s="6">
-        <v>150</v>
-      </c>
-      <c r="D13" s="6">
-        <v>240</v>
-      </c>
-      <c r="E13" s="6">
-        <v>240</v>
-      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -974,15 +902,9 @@
       <c r="B14" s="1">
         <v>77064419</v>
       </c>
-      <c r="C14" s="6">
-        <v>360</v>
-      </c>
-      <c r="D14" s="6">
-        <v>530</v>
-      </c>
-      <c r="E14" s="6">
-        <v>880</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -991,15 +913,9 @@
       <c r="B15" s="1">
         <v>77074557</v>
       </c>
-      <c r="C15" s="6">
-        <v>345</v>
-      </c>
-      <c r="D15" s="7">
-        <v>777</v>
-      </c>
-      <c r="E15" s="6">
-        <v>916</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1008,15 +924,9 @@
       <c r="B16" s="1">
         <v>77058245</v>
       </c>
-      <c r="C16" s="8">
-        <v>650</v>
-      </c>
-      <c r="D16" s="8">
-        <v>650</v>
-      </c>
-      <c r="E16" s="8">
-        <v>650</v>
-      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1025,15 +935,9 @@
       <c r="B17" s="1">
         <v>77086339</v>
       </c>
-      <c r="C17" s="8">
-        <v>315</v>
-      </c>
-      <c r="D17" s="6">
-        <v>500</v>
-      </c>
-      <c r="E17" s="6">
-        <v>500</v>
-      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1042,15 +946,9 @@
       <c r="B18" s="1">
         <v>77063862</v>
       </c>
-      <c r="C18" s="8">
-        <v>1818</v>
-      </c>
-      <c r="D18" s="8">
-        <v>3377</v>
-      </c>
-      <c r="E18" s="8">
-        <v>4171</v>
-      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1059,15 +957,9 @@
       <c r="B19" s="1">
         <v>77082503</v>
       </c>
-      <c r="C19" s="5">
-        <v>2800</v>
-      </c>
-      <c r="D19" s="3">
-        <v>4743</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8610</v>
-      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1076,15 +968,9 @@
       <c r="B20" s="1">
         <v>77082914</v>
       </c>
-      <c r="C20" s="5">
-        <v>4350</v>
-      </c>
-      <c r="D20" s="3">
-        <v>7331</v>
-      </c>
-      <c r="E20" s="3">
-        <v>7436</v>
-      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -1093,15 +979,9 @@
       <c r="B21" s="1">
         <v>77083462</v>
       </c>
-      <c r="C21" s="3">
-        <v>1210</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2054</v>
-      </c>
-      <c r="E21" s="3">
-        <v>2354</v>
-      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -1110,15 +990,9 @@
       <c r="B22" s="1">
         <v>77087435</v>
       </c>
-      <c r="C22" s="5">
-        <v>910</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1595</v>
-      </c>
-      <c r="E22" s="5">
-        <v>1635</v>
-      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
@@ -1127,15 +1001,9 @@
       <c r="B23" s="1">
         <v>77084421</v>
       </c>
-      <c r="C23" s="3">
-        <v>3237</v>
-      </c>
-      <c r="D23" s="4">
-        <v>3627</v>
-      </c>
-      <c r="E23" s="3">
-        <v>10185</v>
-      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -1144,15 +1012,9 @@
       <c r="B24" s="1">
         <v>77060985</v>
       </c>
-      <c r="C24" s="3">
-        <v>1537</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2436</v>
-      </c>
-      <c r="E24" s="4">
-        <v>2884</v>
-      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -1161,15 +1023,9 @@
       <c r="B25" s="1">
         <v>77061533</v>
       </c>
-      <c r="C25" s="3">
-        <v>340</v>
-      </c>
-      <c r="D25" s="5">
-        <v>618</v>
-      </c>
-      <c r="E25" s="5">
-        <v>810</v>
-      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -1178,15 +1034,9 @@
       <c r="B26" s="1">
         <v>77090997</v>
       </c>
-      <c r="C26" s="3">
-        <v>4827</v>
-      </c>
-      <c r="D26" s="3">
-        <v>8050</v>
-      </c>
-      <c r="E26" s="3">
-        <v>8050</v>
-      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -1195,15 +1045,9 @@
       <c r="B27" s="1">
         <v>77061807</v>
       </c>
-      <c r="C27" s="5">
-        <v>2294</v>
-      </c>
-      <c r="D27" s="5">
-        <v>2633</v>
-      </c>
-      <c r="E27" s="5">
-        <v>2793</v>
-      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -1212,15 +1056,9 @@
       <c r="B28" s="1">
         <v>77087572</v>
       </c>
-      <c r="C28" s="3">
-        <v>1768</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2066</v>
-      </c>
-      <c r="E28" s="3">
-        <v>3911</v>
-      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -1229,15 +1067,9 @@
       <c r="B29" s="1">
         <v>77074009</v>
       </c>
-      <c r="C29" s="5">
-        <v>2612</v>
-      </c>
-      <c r="D29" s="5">
-        <v>4434</v>
-      </c>
-      <c r="E29" s="5">
-        <v>6046</v>
-      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -1246,15 +1078,9 @@
       <c r="B30" s="1">
         <v>77073461</v>
       </c>
-      <c r="C30" s="3">
-        <v>5041</v>
-      </c>
-      <c r="D30" s="3">
-        <v>8625</v>
-      </c>
-      <c r="E30" s="3">
-        <v>9777</v>
-      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -1263,15 +1089,9 @@
       <c r="B31" s="1">
         <v>77062355</v>
       </c>
-      <c r="C31" s="5">
-        <v>598</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1226</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1800</v>
-      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -1280,15 +1100,9 @@
       <c r="B32" s="1">
         <v>77084558</v>
       </c>
-      <c r="C32" s="3">
-        <v>1027</v>
-      </c>
-      <c r="D32" s="3">
-        <v>4218</v>
-      </c>
-      <c r="E32" s="3">
-        <v>4218</v>
-      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -1297,15 +1111,9 @@
       <c r="B33" s="1">
         <v>77084832</v>
       </c>
-      <c r="C33" s="5">
-        <v>1660</v>
-      </c>
-      <c r="D33" s="5">
-        <v>3486</v>
-      </c>
-      <c r="E33" s="5">
-        <v>3589</v>
-      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -1314,15 +1122,9 @@
       <c r="B34" s="1">
         <v>77084969</v>
       </c>
-      <c r="C34" s="3">
-        <v>2205</v>
-      </c>
-      <c r="D34" s="3">
-        <v>3591</v>
-      </c>
-      <c r="E34" s="3">
-        <v>3967</v>
-      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -1331,15 +1133,9 @@
       <c r="B35" s="1">
         <v>77087709</v>
       </c>
-      <c r="C35" s="5">
-        <v>2033</v>
-      </c>
-      <c r="D35" s="5">
-        <v>2656</v>
-      </c>
-      <c r="E35" s="5">
-        <v>2656</v>
-      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -1348,15 +1144,9 @@
       <c r="B36" s="1">
         <v>77074831</v>
       </c>
-      <c r="C36" s="3">
-        <v>5048</v>
-      </c>
-      <c r="D36" s="4">
-        <v>7017</v>
-      </c>
-      <c r="E36" s="3">
-        <v>7998</v>
-      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -1365,15 +1155,9 @@
       <c r="B37" s="1">
         <v>77075105</v>
       </c>
-      <c r="C37" s="5">
-        <v>2479</v>
-      </c>
-      <c r="D37" s="3">
-        <v>4218</v>
-      </c>
-      <c r="E37" s="5">
-        <v>4363</v>
-      </c>
+      <c r="C37" s="5"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -1382,15 +1166,9 @@
       <c r="B38" s="1">
         <v>77075790</v>
       </c>
-      <c r="C38" s="3">
-        <v>3178</v>
-      </c>
-      <c r="D38" s="3">
-        <v>3260</v>
-      </c>
-      <c r="E38" s="3">
-        <v>4715</v>
-      </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -1399,15 +1177,9 @@
       <c r="B39" s="1">
         <v>77075927</v>
       </c>
-      <c r="C39" s="5">
-        <v>513</v>
-      </c>
-      <c r="D39" s="5">
-        <v>1007</v>
-      </c>
-      <c r="E39" s="5">
-        <v>1142</v>
-      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -1416,15 +1188,9 @@
       <c r="B40" s="1">
         <v>77062492</v>
       </c>
-      <c r="C40" s="3">
-        <v>1883</v>
-      </c>
-      <c r="D40" s="3">
-        <v>3212</v>
-      </c>
-      <c r="E40" s="3">
-        <v>3257</v>
-      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -1433,15 +1199,9 @@
       <c r="B41" s="1">
         <v>81566907</v>
       </c>
-      <c r="C41" s="3">
-        <v>1183</v>
-      </c>
-      <c r="D41" s="5">
-        <v>1915</v>
-      </c>
-      <c r="E41" s="5">
-        <v>1915</v>
-      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -1450,15 +1210,9 @@
       <c r="B42" s="1">
         <v>77062766</v>
       </c>
-      <c r="C42" s="3">
-        <v>1022</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1729</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1729</v>
-      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -1467,15 +1221,9 @@
       <c r="B43" s="1">
         <v>81567129</v>
       </c>
-      <c r="C43" s="5">
-        <v>698</v>
-      </c>
-      <c r="D43" s="3">
-        <v>1342</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1366</v>
-      </c>
+      <c r="C43" s="5"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -1484,15 +1232,9 @@
       <c r="B44" s="1">
         <v>77089353</v>
       </c>
-      <c r="C44" s="3">
-        <v>1368</v>
-      </c>
-      <c r="D44" s="4">
-        <v>2639</v>
-      </c>
-      <c r="E44" s="3">
-        <v>4123</v>
-      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -1501,15 +1243,9 @@
       <c r="B45" s="1">
         <v>77085380</v>
       </c>
-      <c r="C45" s="5">
-        <v>2671</v>
-      </c>
-      <c r="D45" s="3">
-        <v>3896</v>
-      </c>
-      <c r="E45" s="3">
-        <v>5334</v>
-      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -1518,15 +1254,9 @@
       <c r="B46" s="1">
         <v>77063177</v>
       </c>
-      <c r="C46" s="3">
-        <v>2982</v>
-      </c>
-      <c r="D46" s="4">
-        <v>5090</v>
-      </c>
-      <c r="E46" s="4">
-        <v>5235</v>
-      </c>
+      <c r="C46" s="3"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1535,15 +1265,9 @@
       <c r="B47" s="1">
         <v>77095929</v>
       </c>
-      <c r="C47" s="5">
-        <v>396</v>
-      </c>
-      <c r="D47" s="3">
-        <v>841</v>
-      </c>
-      <c r="E47" s="3">
-        <v>841</v>
-      </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1552,15 +1276,9 @@
       <c r="B48" s="1">
         <v>77057689</v>
       </c>
-      <c r="C48" s="3">
-        <v>493</v>
-      </c>
-      <c r="D48" s="4">
-        <v>743</v>
-      </c>
-      <c r="E48" s="4">
-        <v>808</v>
-      </c>
+      <c r="C48" s="3"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -1569,15 +1287,9 @@
       <c r="B49" s="1">
         <v>77059341</v>
       </c>
-      <c r="C49" s="5">
-        <v>562</v>
-      </c>
-      <c r="D49" s="3">
-        <v>1118</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1118</v>
-      </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -1586,15 +1298,9 @@
       <c r="B50" s="1">
         <v>77057552</v>
       </c>
-      <c r="C50" s="3">
-        <v>7253</v>
-      </c>
-      <c r="D50" s="3">
-        <v>7253</v>
-      </c>
-      <c r="E50" s="3">
-        <v>7253</v>
-      </c>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -1603,15 +1309,9 @@
       <c r="B51" s="1">
         <v>77059752</v>
       </c>
-      <c r="C51" s="5">
-        <v>400</v>
-      </c>
-      <c r="D51" s="5">
-        <v>666</v>
-      </c>
-      <c r="E51" s="5">
-        <v>697</v>
-      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -1620,15 +1320,9 @@
       <c r="B52" s="1">
         <v>77059615</v>
       </c>
-      <c r="C52" s="3">
-        <v>572</v>
-      </c>
-      <c r="D52" s="3">
-        <v>895</v>
-      </c>
-      <c r="E52" s="3">
-        <v>895</v>
-      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -1637,15 +1331,9 @@
       <c r="B53" s="1">
         <v>77056867</v>
       </c>
-      <c r="C53" s="5">
-        <v>4210</v>
-      </c>
-      <c r="D53" s="3">
-        <v>5655</v>
-      </c>
-      <c r="E53" s="3">
-        <v>5795</v>
-      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -1654,15 +1342,9 @@
       <c r="B54" s="1">
         <v>77104560</v>
       </c>
-      <c r="C54" s="3">
-        <v>2325</v>
-      </c>
-      <c r="D54" s="3">
-        <v>3465</v>
-      </c>
-      <c r="E54" s="3">
-        <v>4036</v>
-      </c>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -1671,15 +1353,9 @@
       <c r="B55" s="1">
         <v>77057141</v>
       </c>
-      <c r="C55" s="5">
-        <v>4744</v>
-      </c>
-      <c r="D55" s="5">
-        <v>4845</v>
-      </c>
-      <c r="E55" s="5">
-        <v>6861</v>
-      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -1688,15 +1364,9 @@
       <c r="B56" s="1">
         <v>77060026</v>
       </c>
-      <c r="C56" s="3">
-        <v>1026</v>
-      </c>
-      <c r="D56" s="3">
-        <v>1035</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1035</v>
-      </c>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -1705,15 +1375,9 @@
       <c r="B57" s="1">
         <v>77060163</v>
       </c>
-      <c r="C57" s="8">
-        <v>3446</v>
-      </c>
-      <c r="D57" s="8">
-        <v>5340</v>
-      </c>
-      <c r="E57" s="8">
-        <v>7939</v>
-      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -1722,15 +1386,9 @@
       <c r="B58" s="1">
         <v>77060300</v>
       </c>
-      <c r="C58" s="6">
-        <v>595</v>
-      </c>
-      <c r="D58" s="6">
-        <v>1231</v>
-      </c>
-      <c r="E58" s="6">
-        <v>1231</v>
-      </c>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -1739,15 +1397,9 @@
       <c r="B59" s="1">
         <v>77096477</v>
       </c>
-      <c r="C59" s="8">
-        <v>3098</v>
-      </c>
-      <c r="D59" s="8">
-        <v>4824</v>
-      </c>
-      <c r="E59" s="8">
-        <v>5239</v>
-      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -1756,15 +1408,9 @@
       <c r="B60" s="1">
         <v>77096340</v>
       </c>
-      <c r="C60" s="6">
-        <v>258</v>
-      </c>
-      <c r="D60" s="6">
-        <v>848</v>
-      </c>
-      <c r="E60" s="6">
-        <v>1710</v>
-      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -1773,15 +1419,9 @@
       <c r="B61" s="1">
         <v>77089079</v>
       </c>
-      <c r="C61" s="8">
-        <v>2810</v>
-      </c>
-      <c r="D61" s="8">
-        <v>3816</v>
-      </c>
-      <c r="E61" s="8">
-        <v>6349</v>
-      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -1790,15 +1430,9 @@
       <c r="B62" s="1">
         <v>77085654</v>
       </c>
-      <c r="C62" s="6">
-        <v>1631</v>
-      </c>
-      <c r="D62" s="6">
-        <v>2466</v>
-      </c>
-      <c r="E62" s="6">
-        <v>2466</v>
-      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1807,15 +1441,9 @@
       <c r="B63" s="1">
         <v>77090860</v>
       </c>
-      <c r="C63" s="8">
-        <v>1908</v>
-      </c>
-      <c r="D63" s="8">
-        <v>2694</v>
-      </c>
-      <c r="E63" s="8">
-        <v>2854</v>
-      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -1824,15 +1452,9 @@
       <c r="B64" s="1">
         <v>77063314</v>
       </c>
-      <c r="C64" s="6">
-        <v>1629</v>
-      </c>
-      <c r="D64" s="6">
-        <v>2615</v>
-      </c>
-      <c r="E64" s="6">
-        <v>2615</v>
-      </c>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -1841,15 +1463,9 @@
       <c r="B65" s="1">
         <v>77092230</v>
       </c>
-      <c r="C65" s="8">
-        <v>6117</v>
-      </c>
-      <c r="D65" s="8">
-        <v>9498</v>
-      </c>
-      <c r="E65" s="8">
-        <v>10132</v>
-      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -1858,15 +1474,9 @@
       <c r="B66" s="1">
         <v>79519487</v>
       </c>
-      <c r="C66" s="6">
-        <v>4508</v>
-      </c>
-      <c r="D66" s="6">
-        <v>5241</v>
-      </c>
-      <c r="E66" s="6">
-        <v>5241</v>
-      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -1875,15 +1485,9 @@
       <c r="B67" s="1">
         <v>77086476</v>
       </c>
-      <c r="C67" s="8">
-        <v>2162</v>
-      </c>
-      <c r="D67" s="8">
-        <v>3503</v>
-      </c>
-      <c r="E67" s="8">
-        <v>3503</v>
-      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -1892,15 +1496,9 @@
       <c r="B68" s="1">
         <v>77091408</v>
       </c>
-      <c r="C68" s="6">
-        <v>1471</v>
-      </c>
-      <c r="D68" s="6">
-        <v>2821</v>
-      </c>
-      <c r="E68" s="6">
-        <v>6883</v>
-      </c>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -1909,15 +1507,9 @@
       <c r="B69" s="1">
         <v>78642100</v>
       </c>
-      <c r="C69" s="8">
-        <v>1617</v>
-      </c>
-      <c r="D69" s="8">
-        <v>2336</v>
-      </c>
-      <c r="E69" s="8">
-        <v>2469</v>
-      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -1926,15 +1518,9 @@
       <c r="B70" s="1">
         <v>77086613</v>
       </c>
-      <c r="C70" s="6">
-        <v>4275</v>
-      </c>
-      <c r="D70" s="6">
-        <v>7432</v>
-      </c>
-      <c r="E70" s="6">
-        <v>7473</v>
-      </c>
+      <c r="C70" s="6"/>
+      <c r="D70" s="6"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -1943,15 +1529,9 @@
       <c r="B71" s="1">
         <v>77091682</v>
       </c>
-      <c r="C71" s="8">
-        <v>1279</v>
-      </c>
-      <c r="D71" s="8">
-        <v>2461</v>
-      </c>
-      <c r="E71" s="8">
-        <v>2461</v>
-      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -1960,15 +1540,9 @@
       <c r="B72" s="1">
         <v>77063588</v>
       </c>
-      <c r="C72" s="6">
-        <v>2889</v>
-      </c>
-      <c r="D72" s="6">
-        <v>4798</v>
-      </c>
-      <c r="E72" s="6">
-        <v>4835</v>
-      </c>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -1977,15 +1551,9 @@
       <c r="B73" s="1">
         <v>77072776</v>
       </c>
-      <c r="C73" s="8">
-        <v>93</v>
-      </c>
-      <c r="D73" s="8">
-        <v>185</v>
-      </c>
-      <c r="E73" s="8">
-        <v>604</v>
-      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -1994,15 +1562,9 @@
       <c r="B74" s="1">
         <v>77073050</v>
       </c>
-      <c r="C74" s="6">
-        <v>301</v>
-      </c>
-      <c r="D74" s="6">
-        <v>488</v>
-      </c>
-      <c r="E74" s="6">
-        <v>488</v>
-      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="6"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -2011,15 +1573,9 @@
       <c r="B75" s="1">
         <v>77067159</v>
       </c>
-      <c r="C75" s="8">
-        <v>7283</v>
-      </c>
-      <c r="D75" s="8">
-        <v>12060</v>
-      </c>
-      <c r="E75" s="8">
-        <v>17878</v>
-      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -2028,15 +1584,9 @@
       <c r="B76" s="1">
         <v>77068529</v>
       </c>
-      <c r="C76" s="6">
-        <v>2453</v>
-      </c>
-      <c r="D76" s="6">
-        <v>3568</v>
-      </c>
-      <c r="E76" s="6">
-        <v>3937</v>
-      </c>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -2045,15 +1595,9 @@
       <c r="B77" s="1">
         <v>77068666</v>
       </c>
-      <c r="C77" s="8">
-        <v>4380</v>
-      </c>
-      <c r="D77" s="8">
-        <v>6764</v>
-      </c>
-      <c r="E77" s="8">
-        <v>6840</v>
-      </c>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -2062,15 +1606,9 @@
       <c r="B78" s="1">
         <v>77067707</v>
       </c>
-      <c r="C78" s="6">
-        <v>3963</v>
-      </c>
-      <c r="D78" s="6">
-        <v>6110</v>
-      </c>
-      <c r="E78" s="6">
-        <v>9073</v>
-      </c>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -2079,15 +1617,9 @@
       <c r="B79" s="1">
         <v>77068803</v>
       </c>
-      <c r="C79" s="8">
-        <v>4780</v>
-      </c>
-      <c r="D79" s="8">
-        <v>6925</v>
-      </c>
-      <c r="E79" s="8">
-        <v>7273</v>
-      </c>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -2096,15 +1628,9 @@
       <c r="B80" s="1">
         <v>77068940</v>
       </c>
-      <c r="C80" s="6">
-        <v>2528</v>
-      </c>
-      <c r="D80" s="6">
-        <v>3491</v>
-      </c>
-      <c r="E80" s="6">
-        <v>3491</v>
-      </c>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="13" t="s">
@@ -2113,15 +1639,9 @@
       <c r="B81" s="13">
         <v>77092778</v>
       </c>
-      <c r="C81" s="14">
-        <v>2560</v>
-      </c>
-      <c r="D81" s="14">
-        <v>3418</v>
-      </c>
-      <c r="E81" s="14">
-        <v>4111</v>
-      </c>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -2130,15 +1650,9 @@
       <c r="B82" s="1">
         <v>77071543</v>
       </c>
-      <c r="C82" s="6">
-        <v>3217</v>
-      </c>
-      <c r="D82" s="6">
-        <v>5148</v>
-      </c>
-      <c r="E82" s="6">
-        <v>5779</v>
-      </c>
+      <c r="C82" s="6"/>
+      <c r="D82" s="6"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -2147,15 +1661,9 @@
       <c r="B83" s="1">
         <v>77071817</v>
       </c>
-      <c r="C83" s="8">
-        <v>2428</v>
-      </c>
-      <c r="D83" s="8">
-        <v>4010</v>
-      </c>
-      <c r="E83" s="8">
-        <v>4030</v>
-      </c>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -2164,15 +1672,9 @@
       <c r="B84" s="1">
         <v>75695387</v>
       </c>
-      <c r="C84" s="6">
-        <v>4156</v>
-      </c>
-      <c r="D84" s="6">
-        <v>4884</v>
-      </c>
-      <c r="E84" s="6">
-        <v>6648</v>
-      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -2181,15 +1683,9 @@
       <c r="B85" s="1">
         <v>77094833</v>
       </c>
-      <c r="C85" s="8">
-        <v>2619</v>
-      </c>
-      <c r="D85" s="8">
-        <v>3450</v>
-      </c>
-      <c r="E85" s="8">
-        <v>3450</v>
-      </c>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -2198,15 +1694,9 @@
       <c r="B86" s="1">
         <v>77068392</v>
       </c>
-      <c r="C86" s="6">
-        <v>2744</v>
-      </c>
-      <c r="D86" s="6">
-        <v>3525</v>
-      </c>
-      <c r="E86" s="6">
-        <v>5350</v>
-      </c>
+      <c r="C86" s="6"/>
+      <c r="D86" s="6"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -2215,15 +1705,9 @@
       <c r="B87" s="1">
         <v>77093189</v>
       </c>
-      <c r="C87" s="8">
-        <v>3316</v>
-      </c>
-      <c r="D87" s="8">
-        <v>4868</v>
-      </c>
-      <c r="E87" s="8">
-        <v>5873</v>
-      </c>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -2232,15 +1716,9 @@
       <c r="B88" s="1">
         <v>77072091</v>
       </c>
-      <c r="C88" s="6">
-        <v>2362</v>
-      </c>
-      <c r="D88" s="6">
-        <v>2522</v>
-      </c>
-      <c r="E88" s="6">
-        <v>2522</v>
-      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -2249,15 +1727,9 @@
       <c r="B89" s="1">
         <v>77092915</v>
       </c>
-      <c r="C89" s="8">
-        <v>3932</v>
-      </c>
-      <c r="D89" s="8">
-        <v>4068</v>
-      </c>
-      <c r="E89" s="8">
-        <v>4231</v>
-      </c>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -2266,15 +1738,9 @@
       <c r="B90" s="1">
         <v>77072365</v>
       </c>
-      <c r="C90" s="6">
-        <v>5122</v>
-      </c>
-      <c r="D90" s="6">
-        <v>7048</v>
-      </c>
-      <c r="E90" s="6">
-        <v>7944</v>
-      </c>
+      <c r="C90" s="6"/>
+      <c r="D90" s="6"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -2283,15 +1749,9 @@
       <c r="B91" s="1">
         <v>77069625</v>
       </c>
-      <c r="C91" s="8">
-        <v>3635</v>
-      </c>
-      <c r="D91" s="8">
-        <v>4002</v>
-      </c>
-      <c r="E91" s="8">
-        <v>4466</v>
-      </c>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
